--- a/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.20370247498059</v>
+        <v>93.13919343444167</v>
       </c>
       <c r="D2" t="n">
-        <v>4.033434539110545</v>
+        <v>4.103389932484609</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.77876599147341</v>
+        <v>91.61462055156952</v>
       </c>
       <c r="D3" t="n">
-        <v>3.96397249934301</v>
+        <v>3.472872753041245</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.00934684224455</v>
+        <v>90.90621172738987</v>
       </c>
       <c r="D4" t="n">
-        <v>3.706853838092134</v>
+        <v>4.048136873831139</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.04414408120272</v>
+        <v>89.5429091042387</v>
       </c>
       <c r="D5" t="n">
-        <v>4.043114581403695</v>
+        <v>3.439633469829677</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.16214952707995</v>
+        <v>89.3355681046515</v>
       </c>
       <c r="D6" t="n">
-        <v>3.991975859702843</v>
+        <v>3.336231776280972</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.15723959601904</v>
+        <v>87.6225958338354</v>
       </c>
       <c r="D7" t="n">
-        <v>4.222873337172935</v>
+        <v>3.785296007909871</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.08586732419755</v>
+        <v>86.4647378721923</v>
       </c>
       <c r="D8" t="n">
-        <v>4.158834046212182</v>
+        <v>3.282424946786922</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.3905499248276</v>
+        <v>85.91040821051099</v>
       </c>
       <c r="D9" t="n">
-        <v>3.871857596365914</v>
+        <v>3.475193003597584</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.18771404539008</v>
+        <v>83.43707722748304</v>
       </c>
       <c r="D10" t="n">
-        <v>4.064035794245616</v>
+        <v>3.88573726940187</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.22317756325005</v>
+        <v>83.26167804889312</v>
       </c>
       <c r="D11" t="n">
-        <v>3.834355696036122</v>
+        <v>3.873313882540604</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.24424437511489</v>
+        <v>81.87046251028397</v>
       </c>
       <c r="D12" t="n">
-        <v>3.197670780453168</v>
+        <v>3.513298640049527</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.95685467132722</v>
+        <v>80.96573825298289</v>
       </c>
       <c r="D13" t="n">
-        <v>3.85914559815052</v>
+        <v>3.470946452454093</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.89407740565204</v>
+        <v>80.40663661496848</v>
       </c>
       <c r="D14" t="n">
-        <v>4.242813608108474</v>
+        <v>3.869715008372349</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.34148211436639</v>
+        <v>78.78769978056238</v>
       </c>
       <c r="D15" t="n">
-        <v>3.895476435601858</v>
+        <v>4.108731131383386</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.18043271190496</v>
+        <v>78.35508471629853</v>
       </c>
       <c r="D16" t="n">
-        <v>4.131741321543412</v>
+        <v>3.848012084145728</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.31131914707866</v>
+        <v>76.28639121729719</v>
       </c>
       <c r="D17" t="n">
-        <v>3.459789616074795</v>
+        <v>3.802707038308875</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.26829769707678</v>
+        <v>76.04822054220547</v>
       </c>
       <c r="D18" t="n">
-        <v>4.162146169653689</v>
+        <v>3.907684346159378</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.24114471289894</v>
+        <v>74.87360500617444</v>
       </c>
       <c r="D19" t="n">
-        <v>4.11029243990091</v>
+        <v>3.136954874303511</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.54795662866199</v>
+        <v>73.69519527607385</v>
       </c>
       <c r="D20" t="n">
-        <v>3.635541165347429</v>
+        <v>3.725071697114315</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.10765043657182</v>
+        <v>72.76596948269862</v>
       </c>
       <c r="D21" t="n">
-        <v>3.591719366908432</v>
+        <v>3.430402254563923</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.29575828772873</v>
+        <v>72.21154870613246</v>
       </c>
       <c r="D22" t="n">
-        <v>4.045308256644679</v>
+        <v>3.787426159528033</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.3230637080285</v>
+        <v>71.05947458357792</v>
       </c>
       <c r="D23" t="n">
-        <v>3.770320032203937</v>
+        <v>3.61067905857741</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.17221580478707</v>
+        <v>69.05639966243749</v>
       </c>
       <c r="D24" t="n">
-        <v>3.831562535546665</v>
+        <v>3.166714803138014</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.27668517088181</v>
+        <v>68.02656683103856</v>
       </c>
       <c r="D25" t="n">
-        <v>4.083513128473145</v>
+        <v>3.800339271601972</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.74965733091032</v>
+        <v>67.02313365873951</v>
       </c>
       <c r="D26" t="n">
-        <v>3.488308815312439</v>
+        <v>3.697070297005501</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.99820832010644</v>
+        <v>66.41985913975435</v>
       </c>
       <c r="D27" t="n">
-        <v>3.883821042800568</v>
+        <v>3.787046732346771</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.08140995171146</v>
+        <v>64.9158248181393</v>
       </c>
       <c r="D28" t="n">
-        <v>3.763029426672784</v>
+        <v>3.704781828567684</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.16200455416966</v>
+        <v>64.15276729335125</v>
       </c>
       <c r="D29" t="n">
-        <v>3.890481402946706</v>
+        <v>3.44072586821593</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.82927547109086</v>
+        <v>62.82785074888499</v>
       </c>
       <c r="D30" t="n">
-        <v>3.123550328976148</v>
+        <v>3.641161427475819</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.16037553739086</v>
+        <v>62.03753337354919</v>
       </c>
       <c r="D31" t="n">
-        <v>4.046582451769056</v>
+        <v>3.637749724576154</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.03774582083341</v>
+        <v>60.24373708388801</v>
       </c>
       <c r="D32" t="n">
-        <v>4.454245674211181</v>
+        <v>3.672297749442419</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.65408388002937</v>
+        <v>59.90964781939583</v>
       </c>
       <c r="D33" t="n">
-        <v>3.969665586231154</v>
+        <v>3.585110272607472</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.28731667606958</v>
+        <v>58.63357439293102</v>
       </c>
       <c r="D34" t="n">
-        <v>3.59257369128742</v>
+        <v>3.88395819685323</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.04916393915136</v>
+        <v>57.75556177561012</v>
       </c>
       <c r="D35" t="n">
-        <v>4.386434571768053</v>
+        <v>3.517260033333101</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.13969536522347</v>
+        <v>56.70351920543695</v>
       </c>
       <c r="D36" t="n">
-        <v>4.163358886063017</v>
+        <v>3.562382552514022</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.37195917372107</v>
+        <v>56.0485211547011</v>
       </c>
       <c r="D37" t="n">
-        <v>3.675064170909982</v>
+        <v>3.638932141788914</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.21327465904348</v>
+        <v>54.63211142103735</v>
       </c>
       <c r="D38" t="n">
-        <v>3.673612347449521</v>
+        <v>3.909264603885731</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.60101647526074</v>
+        <v>53.61069814568918</v>
       </c>
       <c r="D39" t="n">
-        <v>3.405531535561102</v>
+        <v>3.82111204402026</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.7891517956288</v>
+        <v>51.67634442804843</v>
       </c>
       <c r="D40" t="n">
-        <v>3.612779273484404</v>
+        <v>3.214798879313647</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.19846995916282</v>
+        <v>50.92756877052705</v>
       </c>
       <c r="D41" t="n">
-        <v>3.949620745325775</v>
+        <v>4.203417746196641</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.96113550393406</v>
+        <v>50.48828650676757</v>
       </c>
       <c r="D42" t="n">
-        <v>3.783756410603227</v>
+        <v>3.227092058323318</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.36550445352304</v>
+        <v>49.56022378658611</v>
       </c>
       <c r="D43" t="n">
-        <v>3.773890235126407</v>
+        <v>3.722838150882132</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.08084968673594</v>
+        <v>48.66644769572998</v>
       </c>
       <c r="D44" t="n">
-        <v>3.806509672876676</v>
+        <v>3.5930766146447</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.27675888749513</v>
+        <v>47.47241996100185</v>
       </c>
       <c r="D45" t="n">
-        <v>3.767755655584359</v>
+        <v>3.484099017923874</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.02052604549148</v>
+        <v>46.03113055647509</v>
       </c>
       <c r="D46" t="n">
-        <v>3.851359009113457</v>
+        <v>3.37432840256808</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.45970340303728</v>
+        <v>46.02857071117212</v>
       </c>
       <c r="D47" t="n">
-        <v>3.838112852243323</v>
+        <v>3.459002914088367</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.75553391696007</v>
+        <v>43.991693342525</v>
       </c>
       <c r="D48" t="n">
-        <v>3.46865833646296</v>
+        <v>3.641697436194917</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.11933121554714</v>
+        <v>43.50952093930641</v>
       </c>
       <c r="D49" t="n">
-        <v>3.61438546290055</v>
+        <v>3.920012429080377</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.46291779173746</v>
+        <v>42.05471887793783</v>
       </c>
       <c r="D50" t="n">
-        <v>3.490420468709118</v>
+        <v>3.369697440227148</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.82582176974119</v>
+        <v>41.51901652973584</v>
       </c>
       <c r="D51" t="n">
-        <v>3.613826204578092</v>
+        <v>4.210061793322406</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.92154495859503</v>
+        <v>40.04035493073142</v>
       </c>
       <c r="D52" t="n">
-        <v>3.371231466464026</v>
+        <v>3.941409799808639</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.86954037632346</v>
+        <v>38.26605657853066</v>
       </c>
       <c r="D53" t="n">
-        <v>3.343277982356009</v>
+        <v>3.454808701536536</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.63442807249158</v>
+        <v>38.31034613824003</v>
       </c>
       <c r="D54" t="n">
-        <v>3.804088365471759</v>
+        <v>3.682856748676465</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.15314344141777</v>
+        <v>36.75631203617088</v>
       </c>
       <c r="D55" t="n">
-        <v>3.972664307727131</v>
+        <v>3.130632426615534</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.24854506387751</v>
+        <v>36.08194409080318</v>
       </c>
       <c r="D56" t="n">
-        <v>3.832939687448538</v>
+        <v>3.376988410718343</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.08251796336855</v>
+        <v>35.22487847931779</v>
       </c>
       <c r="D57" t="n">
-        <v>3.228240066290049</v>
+        <v>3.693428351876557</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.23439811085389</v>
+        <v>33.92466009369387</v>
       </c>
       <c r="D58" t="n">
-        <v>3.557936892672881</v>
+        <v>3.682849018494128</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.33220775227515</v>
+        <v>33.10694150479387</v>
       </c>
       <c r="D59" t="n">
-        <v>3.280987599989508</v>
+        <v>3.392788684549485</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.1688775848482</v>
+        <v>32.04656727657734</v>
       </c>
       <c r="D60" t="n">
-        <v>3.063577864533082</v>
+        <v>3.05396735949905</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.02970666444698</v>
+        <v>30.76108454350429</v>
       </c>
       <c r="D61" t="n">
-        <v>3.697230821469935</v>
+        <v>3.225613124007453</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.33768009263807</v>
+        <v>29.94820219536096</v>
       </c>
       <c r="D62" t="n">
-        <v>3.631434004388344</v>
+        <v>4.116970182945267</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.78738438995931</v>
+        <v>28.67517918236202</v>
       </c>
       <c r="D63" t="n">
-        <v>3.803920385269503</v>
+        <v>3.596212505819385</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.69236021704919</v>
+        <v>28.07065718058974</v>
       </c>
       <c r="D64" t="n">
-        <v>3.703729744744571</v>
+        <v>3.793117454108918</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.60843606101638</v>
+        <v>27.1866359178158</v>
       </c>
       <c r="D65" t="n">
-        <v>4.056485450144387</v>
+        <v>3.674058870218767</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.94746462965882</v>
+        <v>25.75734871051322</v>
       </c>
       <c r="D66" t="n">
-        <v>3.784224615134267</v>
+        <v>3.521103073202188</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.88816888641498</v>
+        <v>25.46625994983041</v>
       </c>
       <c r="D67" t="n">
-        <v>3.53716211704967</v>
+        <v>3.273070703159052</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.1626086019944</v>
+        <v>24.18357700568315</v>
       </c>
       <c r="D68" t="n">
-        <v>3.823345516838911</v>
+        <v>3.414054793751676</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.40124891265804</v>
+        <v>23.17846485824706</v>
       </c>
       <c r="D69" t="n">
-        <v>3.966623112674874</v>
+        <v>3.573826252484778</v>
       </c>
     </row>
   </sheetData>
